--- a/data/pca/factorExposure/factorExposure_2017-07-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02377643329843484</v>
+        <v>-0.008388603047802878</v>
       </c>
       <c r="C2">
-        <v>-0.0007913829013908982</v>
+        <v>-0.04322888270059029</v>
       </c>
       <c r="D2">
-        <v>-0.02051698194073267</v>
+        <v>0.02953584582484546</v>
       </c>
       <c r="E2">
-        <v>-0.01054934592031194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03273223664590857</v>
+      </c>
+      <c r="F2">
+        <v>0.01186862411820328</v>
+      </c>
+      <c r="G2">
+        <v>0.06990361266576413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0174383910605256</v>
+        <v>-0.04872771994285765</v>
       </c>
       <c r="C3">
-        <v>0.05684785027837092</v>
+        <v>-0.08282219231423166</v>
       </c>
       <c r="D3">
-        <v>-0.03412499806163379</v>
+        <v>0.01663428333981412</v>
       </c>
       <c r="E3">
-        <v>-0.0127751060819383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1037712432667633</v>
+      </c>
+      <c r="F3">
+        <v>0.008950270096651823</v>
+      </c>
+      <c r="G3">
+        <v>0.1778071111309207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02355545748994516</v>
+        <v>-0.05832327604325352</v>
       </c>
       <c r="C4">
-        <v>0.01636364851627291</v>
+        <v>-0.06657041625268237</v>
       </c>
       <c r="D4">
-        <v>-0.06883932658091356</v>
+        <v>0.02386071317958927</v>
       </c>
       <c r="E4">
-        <v>0.01469720183350957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02378225618012285</v>
+      </c>
+      <c r="F4">
+        <v>0.005283854873516994</v>
+      </c>
+      <c r="G4">
+        <v>0.07708840091020701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01513382030568386</v>
+        <v>-0.03824159092844912</v>
       </c>
       <c r="C6">
-        <v>0.007273311455312109</v>
+        <v>-0.05336085086030859</v>
       </c>
       <c r="D6">
-        <v>-0.08453513508472479</v>
+        <v>0.01654985206964469</v>
       </c>
       <c r="E6">
-        <v>0.008399664011131522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02624097269786718</v>
+      </c>
+      <c r="F6">
+        <v>0.01106665826481786</v>
+      </c>
+      <c r="G6">
+        <v>0.05986381939643747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01112128129326549</v>
+        <v>-0.01980298362039182</v>
       </c>
       <c r="C7">
-        <v>0.007588286023790459</v>
+        <v>-0.04109566603382409</v>
       </c>
       <c r="D7">
-        <v>-0.04155713861349091</v>
+        <v>0.01310191639721293</v>
       </c>
       <c r="E7">
-        <v>0.06006887280565237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.005655704369892787</v>
+      </c>
+      <c r="F7">
+        <v>-0.005823354109459183</v>
+      </c>
+      <c r="G7">
+        <v>0.1138472255100983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001080985781661567</v>
+        <v>-0.0005591558593180404</v>
       </c>
       <c r="C8">
-        <v>-0.00164421301790835</v>
+        <v>-0.0233456552874725</v>
       </c>
       <c r="D8">
-        <v>-0.002883364972714417</v>
+        <v>0.004080939940782326</v>
       </c>
       <c r="E8">
-        <v>0.007909087159247433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0225873961933143</v>
+      </c>
+      <c r="F8">
+        <v>0.008969459350506382</v>
+      </c>
+      <c r="G8">
+        <v>0.05564200208910499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01645763308079706</v>
+        <v>-0.03374392022413418</v>
       </c>
       <c r="C9">
-        <v>0.01769677693943859</v>
+        <v>-0.04716047643881961</v>
       </c>
       <c r="D9">
-        <v>-0.05177702556680645</v>
+        <v>0.01644284500777135</v>
       </c>
       <c r="E9">
-        <v>0.003555407517255274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01695226537023349</v>
+      </c>
+      <c r="F9">
+        <v>0.01048033346154311</v>
+      </c>
+      <c r="G9">
+        <v>0.08109019696518426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02204313402366006</v>
+        <v>-0.09627058665598374</v>
       </c>
       <c r="C10">
-        <v>0.1678025006504093</v>
+        <v>0.1823004064738897</v>
       </c>
       <c r="D10">
-        <v>0.09948522511953016</v>
+        <v>-0.01597860158339147</v>
       </c>
       <c r="E10">
-        <v>-0.0107344578315396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01514272476221334</v>
+      </c>
+      <c r="F10">
+        <v>-0.02224029586698743</v>
+      </c>
+      <c r="G10">
+        <v>0.05241975178136914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0006645443614532522</v>
+        <v>-0.03391471498376178</v>
       </c>
       <c r="C11">
-        <v>0.004485732188204659</v>
+        <v>-0.05436001533240373</v>
       </c>
       <c r="D11">
-        <v>-0.04306456339610082</v>
+        <v>0.00250977098114717</v>
       </c>
       <c r="E11">
-        <v>-0.00560768155810532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.00968194490922069</v>
+      </c>
+      <c r="F11">
+        <v>0.02107678466825773</v>
+      </c>
+      <c r="G11">
+        <v>0.06310964635736027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006317571374494147</v>
+        <v>-0.03586621202639702</v>
       </c>
       <c r="C12">
-        <v>0.01095097377901163</v>
+        <v>-0.04913249480656531</v>
       </c>
       <c r="D12">
-        <v>-0.04800161005039051</v>
+        <v>0.00622840883216407</v>
       </c>
       <c r="E12">
-        <v>0.005359470605948147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0003618042855472923</v>
+      </c>
+      <c r="F12">
+        <v>0.001084189408872725</v>
+      </c>
+      <c r="G12">
+        <v>0.05898897476989554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02382682755137264</v>
+        <v>-0.01582575229941935</v>
       </c>
       <c r="C13">
-        <v>0.01867919072253446</v>
+        <v>-0.03741596212205283</v>
       </c>
       <c r="D13">
-        <v>-0.0005270883873743714</v>
+        <v>0.02610841546704393</v>
       </c>
       <c r="E13">
-        <v>-0.008500730753212019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02891625456859535</v>
+      </c>
+      <c r="F13">
+        <v>0.005082579965681065</v>
+      </c>
+      <c r="G13">
+        <v>0.09485857560161469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008640575969555303</v>
+        <v>-0.007801006803479495</v>
       </c>
       <c r="C14">
-        <v>0.0155284216478584</v>
+        <v>-0.02639192560525898</v>
       </c>
       <c r="D14">
-        <v>-0.006865310825554505</v>
+        <v>0.009270169725420998</v>
       </c>
       <c r="E14">
-        <v>0.008403020042802557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.001610106297194658</v>
+      </c>
+      <c r="F14">
+        <v>-0.005711231269717417</v>
+      </c>
+      <c r="G14">
+        <v>0.07939306490854811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001475777165470153</v>
+        <v>-0.03313947314043116</v>
       </c>
       <c r="C16">
-        <v>0.01008186090015781</v>
+        <v>-0.04889451462039929</v>
       </c>
       <c r="D16">
-        <v>-0.05006534531546703</v>
+        <v>0.002017816285375249</v>
       </c>
       <c r="E16">
-        <v>0.00502307064734537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007908011791089846</v>
+      </c>
+      <c r="F16">
+        <v>0.002047280208460017</v>
+      </c>
+      <c r="G16">
+        <v>0.06539583441169658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01455762556959742</v>
+        <v>-0.02221268167118209</v>
       </c>
       <c r="C19">
-        <v>0.02098457323379941</v>
+        <v>-0.05022436072939493</v>
       </c>
       <c r="D19">
-        <v>-0.01722427656948505</v>
+        <v>0.01803358629370211</v>
       </c>
       <c r="E19">
-        <v>0.004289050257630356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06485407687497946</v>
+      </c>
+      <c r="F19">
+        <v>0.01920951889011996</v>
+      </c>
+      <c r="G19">
+        <v>0.1090489429716498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01064548404628839</v>
+        <v>-0.01389355100745955</v>
       </c>
       <c r="C20">
-        <v>0.006516315965738109</v>
+        <v>-0.0373220661504124</v>
       </c>
       <c r="D20">
-        <v>-0.01403017587157316</v>
+        <v>0.01386038821240791</v>
       </c>
       <c r="E20">
-        <v>-0.01115143634890829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02740720422598578</v>
+      </c>
+      <c r="F20">
+        <v>-0.01074458831422929</v>
+      </c>
+      <c r="G20">
+        <v>0.0840237941347467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01476228349604435</v>
+        <v>-0.01294697167785047</v>
       </c>
       <c r="C21">
-        <v>0.01816121430514996</v>
+        <v>-0.0396400691768664</v>
       </c>
       <c r="D21">
-        <v>-0.02315592628152837</v>
+        <v>0.01800237274768017</v>
       </c>
       <c r="E21">
-        <v>0.01064869911981758</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03995321033882137</v>
+      </c>
+      <c r="F21">
+        <v>-0.001532639522792586</v>
+      </c>
+      <c r="G21">
+        <v>0.1128692057801641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004466660333660063</v>
+        <v>-0.02712860433409163</v>
       </c>
       <c r="C24">
-        <v>-0.0005539017326958835</v>
+        <v>-0.05145446894551056</v>
       </c>
       <c r="D24">
-        <v>-0.04454228418211825</v>
+        <v>0.007332045003098061</v>
       </c>
       <c r="E24">
-        <v>0.0006838295116008078</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005381066941831017</v>
+      </c>
+      <c r="F24">
+        <v>0.01386365159527805</v>
+      </c>
+      <c r="G24">
+        <v>0.06649252417390211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01241587415143467</v>
+        <v>-0.04176131970943821</v>
       </c>
       <c r="C25">
-        <v>0.01710854590023404</v>
+        <v>-0.05851254992387366</v>
       </c>
       <c r="D25">
-        <v>-0.04602462713740005</v>
+        <v>0.01137209819613454</v>
       </c>
       <c r="E25">
-        <v>0.001112210055616207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0009103601927774012</v>
+      </c>
+      <c r="F25">
+        <v>0.008273652020262021</v>
+      </c>
+      <c r="G25">
+        <v>0.07422166432283993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02321754268098281</v>
+        <v>-0.01566087620997977</v>
       </c>
       <c r="C26">
-        <v>0.009652964316610278</v>
+        <v>-0.009061548610138309</v>
       </c>
       <c r="D26">
-        <v>0.004264435813075554</v>
+        <v>0.0234306854694466</v>
       </c>
       <c r="E26">
-        <v>0.00711984275400588</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.002676325889142549</v>
+      </c>
+      <c r="F26">
+        <v>-0.008070532857854354</v>
+      </c>
+      <c r="G26">
+        <v>0.06306629215945317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04565374942536653</v>
+        <v>-0.1222146272842387</v>
       </c>
       <c r="C28">
-        <v>0.2428716529378284</v>
+        <v>0.2350083193073018</v>
       </c>
       <c r="D28">
-        <v>0.1478054604383163</v>
+        <v>-0.006812406180052366</v>
       </c>
       <c r="E28">
-        <v>0.01116281081670881</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.003972819912145029</v>
+      </c>
+      <c r="F28">
+        <v>-0.01669736928165783</v>
+      </c>
+      <c r="G28">
+        <v>0.06573944228125417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009101737214414088</v>
+        <v>-0.01052245661778359</v>
       </c>
       <c r="C29">
-        <v>0.0204864615900121</v>
+        <v>-0.02035983807026449</v>
       </c>
       <c r="D29">
-        <v>-0.004776767376464224</v>
+        <v>0.00802822307083015</v>
       </c>
       <c r="E29">
-        <v>0.004254605785904131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.003620646914386942</v>
+      </c>
+      <c r="F29">
+        <v>-0.01532818207564914</v>
+      </c>
+      <c r="G29">
+        <v>0.07168912013416835</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02367066875751853</v>
+        <v>-0.0426315613739079</v>
       </c>
       <c r="C30">
-        <v>0.0003138794025027975</v>
+        <v>-0.06624148682203938</v>
       </c>
       <c r="D30">
-        <v>-0.05875517116305251</v>
+        <v>0.02887077231642225</v>
       </c>
       <c r="E30">
-        <v>-0.04836284586090259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05262828366887205</v>
+      </c>
+      <c r="F30">
+        <v>0.04869782391357631</v>
+      </c>
+      <c r="G30">
+        <v>0.08182839044752603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01003796085601657</v>
+        <v>-0.05314096038890441</v>
       </c>
       <c r="C31">
-        <v>0.04052214096132869</v>
+        <v>-0.03675992548093982</v>
       </c>
       <c r="D31">
-        <v>-0.04629197589526673</v>
+        <v>0.003260324737588891</v>
       </c>
       <c r="E31">
-        <v>0.01068961060064744</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.006182543194952836</v>
+      </c>
+      <c r="F31">
+        <v>-0.04296921056560723</v>
+      </c>
+      <c r="G31">
+        <v>0.06963656594496362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005296660004268624</v>
+        <v>-0.0007460807027863572</v>
       </c>
       <c r="C32">
-        <v>0.02138596609439238</v>
+        <v>-0.02332610163207949</v>
       </c>
       <c r="D32">
-        <v>0.009521237645072457</v>
+        <v>-0.003785502340075185</v>
       </c>
       <c r="E32">
-        <v>0.05075974174807829</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01730930955391435</v>
+      </c>
+      <c r="F32">
+        <v>0.04007629613077474</v>
+      </c>
+      <c r="G32">
+        <v>0.09847988996959585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01408141605207481</v>
+        <v>-0.02738010388123688</v>
       </c>
       <c r="C33">
-        <v>0.02463091078397834</v>
+        <v>-0.04859364860456848</v>
       </c>
       <c r="D33">
-        <v>-0.02833820385682332</v>
+        <v>0.01528904206609143</v>
       </c>
       <c r="E33">
-        <v>-0.03048196542719621</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03403828892666109</v>
+      </c>
+      <c r="F33">
+        <v>0.01710787775069911</v>
+      </c>
+      <c r="G33">
+        <v>0.1057104407099175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003865480464668909</v>
+        <v>-0.03897205750763767</v>
       </c>
       <c r="C34">
-        <v>0.01738907140262908</v>
+        <v>-0.06295456736607696</v>
       </c>
       <c r="D34">
-        <v>-0.05119670663778705</v>
+        <v>-0.004334372869829579</v>
       </c>
       <c r="E34">
-        <v>0.009432748842368636</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0002478192229885835</v>
+      </c>
+      <c r="F34">
+        <v>0.02087243288741117</v>
+      </c>
+      <c r="G34">
+        <v>0.07432033498603595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01323891087987211</v>
+        <v>-0.01497212880947348</v>
       </c>
       <c r="C36">
-        <v>0.02034379210254584</v>
+        <v>-0.009620927506084027</v>
       </c>
       <c r="D36">
-        <v>-0.002647092689168333</v>
+        <v>0.01182624365520798</v>
       </c>
       <c r="E36">
-        <v>0.002776094602602981</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001959479440295555</v>
+      </c>
+      <c r="F36">
+        <v>-0.008845246234020407</v>
+      </c>
+      <c r="G36">
+        <v>0.06049704137347044</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003084801848385573</v>
+        <v>-0.03240336101657589</v>
       </c>
       <c r="C38">
-        <v>0.0345706314924784</v>
+        <v>-0.03043277296212039</v>
       </c>
       <c r="D38">
-        <v>-0.03817354092432101</v>
+        <v>-0.007750292331845765</v>
       </c>
       <c r="E38">
-        <v>0.006023986452047078</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001498128641188359</v>
+      </c>
+      <c r="F38">
+        <v>-0.01774005564430704</v>
+      </c>
+      <c r="G38">
+        <v>0.06628232771548993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004424787637459382</v>
+        <v>-0.03460747857001643</v>
       </c>
       <c r="C39">
-        <v>-0.02093865783616365</v>
+        <v>-0.0810469574451264</v>
       </c>
       <c r="D39">
-        <v>-0.08643850835613928</v>
+        <v>0.01190378102443084</v>
       </c>
       <c r="E39">
-        <v>-0.01154068372089867</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02125706643786372</v>
+      </c>
+      <c r="F39">
+        <v>0.02636927329417594</v>
+      </c>
+      <c r="G39">
+        <v>0.06345458382849237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01247718869183972</v>
+        <v>-0.01492306499283584</v>
       </c>
       <c r="C40">
-        <v>0.01814605573069764</v>
+        <v>-0.04199710858609259</v>
       </c>
       <c r="D40">
-        <v>-0.02526466315901729</v>
+        <v>0.01509975306297982</v>
       </c>
       <c r="E40">
-        <v>0.002393952344228985</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02267145489199102</v>
+      </c>
+      <c r="F40">
+        <v>-0.01358497898873124</v>
+      </c>
+      <c r="G40">
+        <v>0.1048104069258077</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006481536588482982</v>
+        <v>-0.01871269483204759</v>
       </c>
       <c r="C41">
-        <v>0.02163507929975753</v>
+        <v>0.0003774034068290168</v>
       </c>
       <c r="D41">
-        <v>0.008559052209812686</v>
+        <v>0.00374593805346475</v>
       </c>
       <c r="E41">
-        <v>0.002669389605451389</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0003229115111199919</v>
+      </c>
+      <c r="F41">
+        <v>-0.01090472370101533</v>
+      </c>
+      <c r="G41">
+        <v>0.04743898555326913</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.0941670346073174</v>
+        <v>-0.01095390892212753</v>
       </c>
       <c r="C42">
-        <v>-0.01604938489306187</v>
+        <v>-0.03737102818026315</v>
       </c>
       <c r="D42">
-        <v>-0.2808390478292735</v>
+        <v>0.09359512121097004</v>
       </c>
       <c r="E42">
-        <v>-0.4230695160166136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.02886518195478613</v>
+      </c>
+      <c r="F42">
+        <v>-0.03509026839367611</v>
+      </c>
+      <c r="G42">
+        <v>-0.1617824202332208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007792958799577476</v>
+        <v>-0.0337336326435316</v>
       </c>
       <c r="C43">
-        <v>0.02619422662279606</v>
+        <v>-0.01360455280867309</v>
       </c>
       <c r="D43">
-        <v>0.007761481286391756</v>
+        <v>0.005344234742997406</v>
       </c>
       <c r="E43">
-        <v>-0.003435020054293628</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01312227898445596</v>
+      </c>
+      <c r="F43">
+        <v>-0.004470502652366471</v>
+      </c>
+      <c r="G43">
+        <v>0.07252115505829734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.00246167605464348</v>
+        <v>-0.01257073124407947</v>
       </c>
       <c r="C44">
-        <v>0.00214156042231963</v>
+        <v>-0.05454290594522274</v>
       </c>
       <c r="D44">
-        <v>-0.03442701773522372</v>
+        <v>0.006580429374699117</v>
       </c>
       <c r="E44">
-        <v>0.005386314982004524</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01779638249519651</v>
+      </c>
+      <c r="F44">
+        <v>-0.009889412750306612</v>
+      </c>
+      <c r="G44">
+        <v>0.0877932073340096</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01128940524403121</v>
+        <v>-0.007617923492831002</v>
       </c>
       <c r="C46">
-        <v>0.01482239118840842</v>
+        <v>-0.01613033639447811</v>
       </c>
       <c r="D46">
-        <v>-0.009499057835050095</v>
+        <v>0.01186633931064797</v>
       </c>
       <c r="E46">
-        <v>-0.0008662204934848924</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001613815525029551</v>
+      </c>
+      <c r="F46">
+        <v>-0.01645282027658635</v>
+      </c>
+      <c r="G46">
+        <v>0.07169158044941133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.00476583558275958</v>
+        <v>-0.07847647377706565</v>
       </c>
       <c r="C47">
-        <v>0.05178032772799429</v>
+        <v>-0.0651551911346067</v>
       </c>
       <c r="D47">
-        <v>-0.06836038878424593</v>
+        <v>-0.005383241003454763</v>
       </c>
       <c r="E47">
-        <v>0.005665728566345965</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01051040450386569</v>
+      </c>
+      <c r="F47">
+        <v>-0.05687172044695565</v>
+      </c>
+      <c r="G47">
+        <v>0.06522637225230021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.00422830380835466</v>
+        <v>-0.0208082196168244</v>
       </c>
       <c r="C48">
-        <v>0.02578775987349517</v>
+        <v>-0.01135789983684265</v>
       </c>
       <c r="D48">
-        <v>-0.01450229951989346</v>
+        <v>0.001076412847066388</v>
       </c>
       <c r="E48">
-        <v>0.001957130725060808</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.00231678270297098</v>
+      </c>
+      <c r="F48">
+        <v>-0.02224470567696284</v>
+      </c>
+      <c r="G48">
+        <v>0.06692454507843085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006754770087686101</v>
+        <v>-0.07642427213391134</v>
       </c>
       <c r="C50">
-        <v>0.05316921541743126</v>
+        <v>-0.06892419551688056</v>
       </c>
       <c r="D50">
-        <v>-0.07044810019867288</v>
+        <v>-0.00304252165463825</v>
       </c>
       <c r="E50">
-        <v>0.0332069325333253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01071054610742635</v>
+      </c>
+      <c r="F50">
+        <v>-0.06073955874400445</v>
+      </c>
+      <c r="G50">
+        <v>0.08546066221524232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.00761980224485154</v>
+        <v>-0.01358887882304163</v>
       </c>
       <c r="C51">
-        <v>0.01696290067503029</v>
+        <v>-0.03350097804041566</v>
       </c>
       <c r="D51">
-        <v>0.0002346094737519728</v>
+        <v>0.00998339884342885</v>
       </c>
       <c r="E51">
-        <v>0.005209519107628969</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01702202063029198</v>
+      </c>
+      <c r="F51">
+        <v>0.02337233242691593</v>
+      </c>
+      <c r="G51">
+        <v>0.1016747133292568</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007948588707294516</v>
+        <v>-0.08205553115685774</v>
       </c>
       <c r="C53">
-        <v>0.06439642089925024</v>
+        <v>-0.08326129750644609</v>
       </c>
       <c r="D53">
-        <v>-0.1254098750897916</v>
+        <v>-0.004322954447240899</v>
       </c>
       <c r="E53">
-        <v>0.01281590744633601</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03022586858482792</v>
+      </c>
+      <c r="F53">
+        <v>-0.06535645410497881</v>
+      </c>
+      <c r="G53">
+        <v>0.06307413416956491</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001741392067294717</v>
+        <v>-0.02962549443609531</v>
       </c>
       <c r="C54">
-        <v>0.03446320844069702</v>
+        <v>-0.01487540269685507</v>
       </c>
       <c r="D54">
-        <v>0.007596418614768527</v>
+        <v>-0.001907925052695594</v>
       </c>
       <c r="E54">
-        <v>0.001380116573613395</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.008649203886324694</v>
+      </c>
+      <c r="F54">
+        <v>-0.002427155330893769</v>
+      </c>
+      <c r="G54">
+        <v>0.07421705320266971</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003990809955661338</v>
+        <v>-0.07222654686861016</v>
       </c>
       <c r="C55">
-        <v>0.04298982491963955</v>
+        <v>-0.06899788317548411</v>
       </c>
       <c r="D55">
-        <v>-0.1040332881613968</v>
+        <v>-0.005491301435175945</v>
       </c>
       <c r="E55">
-        <v>-0.001228996422937996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02611617627078581</v>
+      </c>
+      <c r="F55">
+        <v>-0.06149222260939174</v>
+      </c>
+      <c r="G55">
+        <v>0.03856969434643086</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.00729201287511756</v>
+        <v>-0.1396380963144102</v>
       </c>
       <c r="C56">
-        <v>0.09025719952720276</v>
+        <v>-0.1089457834137136</v>
       </c>
       <c r="D56">
-        <v>-0.1612552664553428</v>
+        <v>-0.01272905660890899</v>
       </c>
       <c r="E56">
-        <v>0.001702807135226031</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03444753078368244</v>
+      </c>
+      <c r="F56">
+        <v>-0.08029049769283277</v>
+      </c>
+      <c r="G56">
+        <v>0.01760447659846557</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02387664238281265</v>
+        <v>-0.007253969271014966</v>
       </c>
       <c r="C57">
-        <v>0.01235352347797898</v>
+        <v>-0.00915882734051122</v>
       </c>
       <c r="D57">
-        <v>-0.04224531633228198</v>
+        <v>0.02358011704578845</v>
       </c>
       <c r="E57">
-        <v>-0.002500375714816439</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02441015634531605</v>
+      </c>
+      <c r="F57">
+        <v>0.00937676126094813</v>
+      </c>
+      <c r="G57">
+        <v>0.02760858356711947</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01715300887472963</v>
+        <v>-0.06816534166138151</v>
       </c>
       <c r="C58">
-        <v>0.08375159564351885</v>
+        <v>-0.04298003201996463</v>
       </c>
       <c r="D58">
-        <v>-0.1267224745777088</v>
+        <v>0.02652415748687071</v>
       </c>
       <c r="E58">
-        <v>-0.403594571873146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9333333932233342</v>
+      </c>
+      <c r="F58">
+        <v>-0.2432753185504258</v>
+      </c>
+      <c r="G58">
+        <v>-0.1094485260493762</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04295680949592937</v>
+        <v>-0.1580745092486699</v>
       </c>
       <c r="C59">
-        <v>0.257385361716594</v>
+        <v>0.2035557789810836</v>
       </c>
       <c r="D59">
-        <v>0.1521085682847476</v>
+        <v>-0.01236739271018532</v>
       </c>
       <c r="E59">
-        <v>0.004904361926479623</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01400623566095004</v>
+      </c>
+      <c r="F59">
+        <v>-0.0008905490075049216</v>
+      </c>
+      <c r="G59">
+        <v>0.0415392028292288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04312743146712494</v>
+        <v>-0.2876249080170027</v>
       </c>
       <c r="C60">
-        <v>0.1620314557323288</v>
+        <v>-0.09845095080593412</v>
       </c>
       <c r="D60">
-        <v>-0.0822852997047325</v>
+        <v>0.01276933665846147</v>
       </c>
       <c r="E60">
-        <v>0.003457138882136617</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.001644405432603355</v>
+      </c>
+      <c r="F60">
+        <v>0.350642539635094</v>
+      </c>
+      <c r="G60">
+        <v>-0.1184941446877551</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003146179557485201</v>
+        <v>-0.03615990189083997</v>
       </c>
       <c r="C61">
-        <v>0.005739705581642181</v>
+        <v>-0.06659580214161728</v>
       </c>
       <c r="D61">
-        <v>-0.06164068762809824</v>
+        <v>0.005368518355715472</v>
       </c>
       <c r="E61">
-        <v>0.001775615173937826</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01381016313119719</v>
+      </c>
+      <c r="F61">
+        <v>0.01482858300952521</v>
+      </c>
+      <c r="G61">
+        <v>0.06532464303843834</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007866724948226874</v>
+        <v>-0.01407350041510312</v>
       </c>
       <c r="C63">
-        <v>0.00791579131719323</v>
+        <v>-0.02926968951809152</v>
       </c>
       <c r="D63">
-        <v>-0.01037392720448433</v>
+        <v>0.008155898252704082</v>
       </c>
       <c r="E63">
-        <v>0.008901677462067537</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.001353813898599836</v>
+      </c>
+      <c r="F63">
+        <v>-0.0182419843279495</v>
+      </c>
+      <c r="G63">
+        <v>0.07222724384872668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.00920492065325393</v>
+        <v>-0.04645007579477547</v>
       </c>
       <c r="C64">
-        <v>0.02873254645968609</v>
+        <v>-0.04646551590054696</v>
       </c>
       <c r="D64">
-        <v>-0.06250122398993746</v>
+        <v>0.006362663338499475</v>
       </c>
       <c r="E64">
-        <v>-0.01396834767798918</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.002637625607765831</v>
+      </c>
+      <c r="F64">
+        <v>0.005073847286569205</v>
+      </c>
+      <c r="G64">
+        <v>0.06037390424563335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01706413746060577</v>
+        <v>-0.07813590747359002</v>
       </c>
       <c r="C65">
-        <v>0.006428055633602839</v>
+        <v>-0.0599555854164032</v>
       </c>
       <c r="D65">
-        <v>-0.1001291726355681</v>
+        <v>0.01630904346399598</v>
       </c>
       <c r="E65">
-        <v>0.01127088390439514</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02754827600158982</v>
+      </c>
+      <c r="F65">
+        <v>0.03019895286382105</v>
+      </c>
+      <c r="G65">
+        <v>0.02732879879825739</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004171819838568432</v>
+        <v>-0.05038646805247989</v>
       </c>
       <c r="C66">
-        <v>-0.01683335374066186</v>
+        <v>-0.1119410124472453</v>
       </c>
       <c r="D66">
-        <v>-0.1105771444515338</v>
+        <v>0.01195560151920238</v>
       </c>
       <c r="E66">
-        <v>-0.008714479086755385</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02959790897355143</v>
+      </c>
+      <c r="F66">
+        <v>0.03522663974013726</v>
+      </c>
+      <c r="G66">
+        <v>0.07405161058443384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.00382380981899703</v>
+        <v>-0.055118500120522</v>
       </c>
       <c r="C67">
-        <v>0.0566414041042711</v>
+        <v>-0.03373480427937298</v>
       </c>
       <c r="D67">
-        <v>-0.04442466274776653</v>
+        <v>-0.005996292712090719</v>
       </c>
       <c r="E67">
-        <v>0.007765153525407096</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.005416692614591666</v>
+      </c>
+      <c r="F67">
+        <v>-0.01832754873604799</v>
+      </c>
+      <c r="G67">
+        <v>0.06038983341116414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05938523130917851</v>
+        <v>-0.1455497218320308</v>
       </c>
       <c r="C68">
-        <v>0.2334803351130827</v>
+        <v>0.2689794902732458</v>
       </c>
       <c r="D68">
-        <v>0.1570771375118556</v>
+        <v>0.005409105250138757</v>
       </c>
       <c r="E68">
-        <v>-0.01623372718646703</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01080149772594433</v>
+      </c>
+      <c r="F68">
+        <v>-0.03180907369438897</v>
+      </c>
+      <c r="G68">
+        <v>0.02355303925413547</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0005823956682526404</v>
+        <v>-0.08164662471597868</v>
       </c>
       <c r="C69">
-        <v>0.04082692726684845</v>
+        <v>-0.06795718731117045</v>
       </c>
       <c r="D69">
-        <v>-0.06891889942741908</v>
+        <v>-0.009537279911685915</v>
       </c>
       <c r="E69">
-        <v>0.01011799938765221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02738364172902048</v>
+      </c>
+      <c r="F69">
+        <v>-0.03985258497875914</v>
+      </c>
+      <c r="G69">
+        <v>0.066178599767044</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04421666453347272</v>
+        <v>-0.1346144002661059</v>
       </c>
       <c r="C71">
-        <v>0.2052321978936513</v>
+        <v>0.2289357749139543</v>
       </c>
       <c r="D71">
-        <v>0.1281011775451319</v>
+        <v>-0.003266389160843326</v>
       </c>
       <c r="E71">
-        <v>-0.009281445410124625</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03001882383311085</v>
+      </c>
+      <c r="F71">
+        <v>-0.01662919735487477</v>
+      </c>
+      <c r="G71">
+        <v>0.05508297738618103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0002785864214731512</v>
+        <v>-0.08591179466071401</v>
       </c>
       <c r="C72">
-        <v>0.04186845471403753</v>
+        <v>-0.07204370777442898</v>
       </c>
       <c r="D72">
-        <v>-0.1169084967926134</v>
+        <v>-0.007895258341136793</v>
       </c>
       <c r="E72">
-        <v>0.005136849200505826</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.0008045714705895592</v>
+      </c>
+      <c r="F72">
+        <v>0.04496464948307895</v>
+      </c>
+      <c r="G72">
+        <v>0.05732558410480796</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05632724350510435</v>
+        <v>-0.3835009539853572</v>
       </c>
       <c r="C73">
-        <v>0.1815496382224085</v>
+        <v>-0.1140744858553927</v>
       </c>
       <c r="D73">
-        <v>-0.1633580496474444</v>
+        <v>0.02215415875769476</v>
       </c>
       <c r="E73">
-        <v>-0.03625403344575327</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.07011264187940792</v>
+      </c>
+      <c r="F73">
+        <v>0.5694932486114385</v>
+      </c>
+      <c r="G73">
+        <v>-0.1972400549593337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.004031511785917477</v>
+        <v>-0.1082572096913378</v>
       </c>
       <c r="C74">
-        <v>0.07422875552458097</v>
+        <v>-0.1111154001319119</v>
       </c>
       <c r="D74">
-        <v>-0.1591398258651811</v>
+        <v>-0.009940880578948258</v>
       </c>
       <c r="E74">
-        <v>-0.00997222149537281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01337944422244857</v>
+      </c>
+      <c r="F74">
+        <v>-0.07167815923347931</v>
+      </c>
+      <c r="G74">
+        <v>0.06005725115350968</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01378992898491841</v>
+        <v>-0.2495619537414008</v>
       </c>
       <c r="C75">
-        <v>0.1773680931548178</v>
+        <v>-0.1487040849325656</v>
       </c>
       <c r="D75">
-        <v>-0.2953607914003307</v>
+        <v>-0.03081132188826967</v>
       </c>
       <c r="E75">
-        <v>-0.01307123072108141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05855584615319191</v>
+      </c>
+      <c r="F75">
+        <v>-0.17510017533882</v>
+      </c>
+      <c r="G75">
+        <v>-0.05595401880702938</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001505599455072253</v>
+        <v>-0.1228427306882676</v>
       </c>
       <c r="C76">
-        <v>0.1121981876240006</v>
+        <v>-0.1129047511389481</v>
       </c>
       <c r="D76">
-        <v>-0.2295348364048985</v>
+        <v>-0.02030254896924819</v>
       </c>
       <c r="E76">
-        <v>0.03415694108155536</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04264043071207397</v>
+      </c>
+      <c r="F76">
+        <v>-0.1137313369220845</v>
+      </c>
+      <c r="G76">
+        <v>0.03755404954876115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01393785836567408</v>
+        <v>-0.06572158199429437</v>
       </c>
       <c r="C77">
-        <v>0.02047157511405185</v>
+        <v>-0.05855400414533244</v>
       </c>
       <c r="D77">
-        <v>-0.0323440409519784</v>
+        <v>0.0125675648022676</v>
       </c>
       <c r="E77">
-        <v>-0.01912402179231211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.05115362280665924</v>
+      </c>
+      <c r="F77">
+        <v>0.01441159955078402</v>
+      </c>
+      <c r="G77">
+        <v>0.06046589576242412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006667047410628971</v>
+        <v>-0.04455505958608545</v>
       </c>
       <c r="C78">
-        <v>0.02194548562212378</v>
+        <v>-0.04851881532888914</v>
       </c>
       <c r="D78">
-        <v>-0.03991945910032918</v>
+        <v>0.005502888327414414</v>
       </c>
       <c r="E78">
-        <v>-0.00521040080492968</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02391885491779259</v>
+      </c>
+      <c r="F78">
+        <v>0.03798535672015113</v>
+      </c>
+      <c r="G78">
+        <v>0.06856681262132562</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01665376344946429</v>
+        <v>-0.05623091730543198</v>
       </c>
       <c r="C80">
-        <v>0.08413613569910298</v>
+        <v>-0.07068549408778474</v>
       </c>
       <c r="D80">
-        <v>-0.2231283591203574</v>
+        <v>0.01040882598111265</v>
       </c>
       <c r="E80">
-        <v>0.7853938008651405</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.0252631816102222</v>
+      </c>
+      <c r="F80">
+        <v>0.003182591294278419</v>
+      </c>
+      <c r="G80">
+        <v>0.6295772534890111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008635920646693974</v>
+        <v>-0.1403511532841747</v>
       </c>
       <c r="C81">
-        <v>0.1044013436623341</v>
+        <v>-0.0953807770909067</v>
       </c>
       <c r="D81">
-        <v>-0.1696426522412242</v>
+        <v>-0.01541561003318877</v>
       </c>
       <c r="E81">
-        <v>0.01204147382269114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03692605846749446</v>
+      </c>
+      <c r="F81">
+        <v>-0.1320967423207875</v>
+      </c>
+      <c r="G81">
+        <v>0.0229235474800216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.121958412312353</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.06667249797925177</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.00731649769042265</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08779343485212385</v>
+      </c>
+      <c r="F82">
+        <v>-0.03096067095669975</v>
+      </c>
+      <c r="G82">
+        <v>0.03283157793185185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007166000411726488</v>
+        <v>-0.0343009388586774</v>
       </c>
       <c r="C83">
-        <v>0.01999133991577012</v>
+        <v>-0.02564149423757369</v>
       </c>
       <c r="D83">
-        <v>-0.019493575442339</v>
+        <v>0.005606117333845639</v>
       </c>
       <c r="E83">
-        <v>-0.0007640014019391713</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02821191408385509</v>
+      </c>
+      <c r="F83">
+        <v>0.03432833490524433</v>
+      </c>
+      <c r="G83">
+        <v>0.04439521958965516</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01998295513464967</v>
+        <v>-0.2168177684190097</v>
       </c>
       <c r="C85">
-        <v>0.1408887314722369</v>
+        <v>-0.1426264623575328</v>
       </c>
       <c r="D85">
-        <v>-0.2682603335555328</v>
+        <v>-0.0186212159466677</v>
       </c>
       <c r="E85">
-        <v>-0.007632133476193769</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1000270921589321</v>
+      </c>
+      <c r="F85">
+        <v>-0.1372088610574144</v>
+      </c>
+      <c r="G85">
+        <v>-0.1035277439011338</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009930046889631474</v>
+        <v>-0.01337961475350519</v>
       </c>
       <c r="C86">
-        <v>0.03190390395022044</v>
+        <v>-0.0252659028933075</v>
       </c>
       <c r="D86">
-        <v>-0.007395378011021685</v>
+        <v>0.01212776440519994</v>
       </c>
       <c r="E86">
-        <v>-0.03656699312851535</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04683495156828998</v>
+      </c>
+      <c r="F86">
+        <v>0.03253516322724116</v>
+      </c>
+      <c r="G86">
+        <v>0.1534335702138752</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008878826091208223</v>
+        <v>-0.02283826535718071</v>
       </c>
       <c r="C87">
-        <v>0.01300984166072782</v>
+        <v>-0.0256419409385555</v>
       </c>
       <c r="D87">
-        <v>-0.0370469808563693</v>
+        <v>0.01197081018692847</v>
       </c>
       <c r="E87">
-        <v>-0.01347268581398682</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08617453276195215</v>
+      </c>
+      <c r="F87">
+        <v>0.0215180057994919</v>
+      </c>
+      <c r="G87">
+        <v>0.09000371538450501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02746968327287366</v>
+        <v>-0.09257669313215681</v>
       </c>
       <c r="C88">
-        <v>0.02557835401525394</v>
+        <v>-0.06527839659682277</v>
       </c>
       <c r="D88">
-        <v>-0.03996516615060322</v>
+        <v>0.02230849562064151</v>
       </c>
       <c r="E88">
-        <v>0.00222710209264407</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01248255958347987</v>
+      </c>
+      <c r="F88">
+        <v>-0.02168216304997584</v>
+      </c>
+      <c r="G88">
+        <v>0.05013623040874426</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08400612143712574</v>
+        <v>-0.2259999776832976</v>
       </c>
       <c r="C89">
-        <v>0.3800514294995889</v>
+        <v>0.3691732302658643</v>
       </c>
       <c r="D89">
-        <v>0.227638411152393</v>
+        <v>-0.002000503375816424</v>
       </c>
       <c r="E89">
-        <v>0.018549915541714</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02307132822993284</v>
+      </c>
+      <c r="F89">
+        <v>-0.03466939287106017</v>
+      </c>
+      <c r="G89">
+        <v>0.04686769320241219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06414278546349045</v>
+        <v>-0.2032686908311119</v>
       </c>
       <c r="C90">
-        <v>0.2949795502895695</v>
+        <v>0.325062224339441</v>
       </c>
       <c r="D90">
-        <v>0.2020722535397666</v>
+        <v>-0.006505249500466687</v>
       </c>
       <c r="E90">
-        <v>-0.01566913279205154</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01266000726039744</v>
+      </c>
+      <c r="F90">
+        <v>-0.05020896365196846</v>
+      </c>
+      <c r="G90">
+        <v>0.01700107896987135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.009224959561278841</v>
+        <v>-0.1903180413125198</v>
       </c>
       <c r="C91">
-        <v>0.1512042971938402</v>
+        <v>-0.1409097537528497</v>
       </c>
       <c r="D91">
-        <v>-0.2240839000304925</v>
+        <v>-0.02337567700274096</v>
       </c>
       <c r="E91">
-        <v>0.01399416608704325</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06980949136634611</v>
+      </c>
+      <c r="F91">
+        <v>-0.1504345413537329</v>
+      </c>
+      <c r="G91">
+        <v>0.01170362521765333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.0310489094566579</v>
+        <v>-0.2004166547088423</v>
       </c>
       <c r="C92">
-        <v>0.3071733442199638</v>
+        <v>0.2626540253190826</v>
       </c>
       <c r="D92">
-        <v>0.09356988151301016</v>
+        <v>-0.04070513225458183</v>
       </c>
       <c r="E92">
-        <v>-0.01565821755768214</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.02177702450978527</v>
+      </c>
+      <c r="F92">
+        <v>-0.06393151404116267</v>
+      </c>
+      <c r="G92">
+        <v>0.1264693180020882</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06232911953131533</v>
+        <v>-0.22966364261572</v>
       </c>
       <c r="C93">
-        <v>0.3195089066189379</v>
+        <v>0.3238042444499177</v>
       </c>
       <c r="D93">
-        <v>0.1860065790175121</v>
+        <v>-0.0129831564719665</v>
       </c>
       <c r="E93">
-        <v>-0.03980678637223152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.002176688067297642</v>
+      </c>
+      <c r="F93">
+        <v>-0.03366841400746998</v>
+      </c>
+      <c r="G93">
+        <v>0.02071541882975231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03332676662218027</v>
+        <v>-0.3145591660051001</v>
       </c>
       <c r="C94">
-        <v>0.1768300514529874</v>
+        <v>-0.1762874114704011</v>
       </c>
       <c r="D94">
-        <v>-0.2523482032091903</v>
+        <v>-0.01812205263171698</v>
       </c>
       <c r="E94">
-        <v>-0.01427331359226929</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1734809859099891</v>
+      </c>
+      <c r="F94">
+        <v>-0.4740377065787271</v>
+      </c>
+      <c r="G94">
+        <v>-0.3097505935277525</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004284090219727444</v>
+        <v>-0.09804136032050684</v>
       </c>
       <c r="C95">
-        <v>0.03782602591928439</v>
+        <v>-0.08681116283923686</v>
       </c>
       <c r="D95">
-        <v>-0.08685199022484399</v>
+        <v>-0.009700004893438639</v>
       </c>
       <c r="E95">
-        <v>-0.1265778877897085</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06322583157038765</v>
+      </c>
+      <c r="F95">
+        <v>0.2061561937886319</v>
+      </c>
+      <c r="G95">
+        <v>-0.1323577937692454</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01676769986829857</v>
+        <v>-0.1995038226113539</v>
       </c>
       <c r="C98">
-        <v>0.1655502401589763</v>
+        <v>-0.04548041242157547</v>
       </c>
       <c r="D98">
-        <v>-0.1198175124794255</v>
+        <v>-0.01232673722931805</v>
       </c>
       <c r="E98">
-        <v>-0.04362046587721689</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.07094931258880145</v>
+      </c>
+      <c r="F98">
+        <v>0.2398789412066173</v>
+      </c>
+      <c r="G98">
+        <v>-0.007776130166249871</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008882007810029069</v>
+        <v>-0.01034633683610345</v>
       </c>
       <c r="C101">
-        <v>0.02018098564301612</v>
+        <v>-0.02031953212600473</v>
       </c>
       <c r="D101">
-        <v>-0.004504423583468317</v>
+        <v>0.007848711336061473</v>
       </c>
       <c r="E101">
-        <v>0.004660054325684801</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.00390677307446067</v>
+      </c>
+      <c r="F101">
+        <v>-0.01633572408521558</v>
+      </c>
+      <c r="G101">
+        <v>0.07116617193746044</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01881688399487893</v>
+        <v>-0.1173305234231415</v>
       </c>
       <c r="C102">
-        <v>0.07788554352059555</v>
+        <v>-0.08422971898697308</v>
       </c>
       <c r="D102">
-        <v>-0.1293670844455941</v>
+        <v>0.0009638431067744045</v>
       </c>
       <c r="E102">
-        <v>0.0009367837033303005</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03216515832986177</v>
+      </c>
+      <c r="F102">
+        <v>-0.04050666942996267</v>
+      </c>
+      <c r="G102">
+        <v>0.0004905489339926538</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001778484139736636</v>
+        <v>-0.003100009770993341</v>
       </c>
       <c r="C103">
-        <v>0.009817019726736724</v>
+        <v>-0.003646275263781266</v>
       </c>
       <c r="D103">
-        <v>-0.02203587606381395</v>
+        <v>0.0001926533795047222</v>
       </c>
       <c r="E103">
-        <v>0.01364738172073951</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.00209228080719865</v>
+      </c>
+      <c r="F103">
+        <v>-0.004262685738333692</v>
+      </c>
+      <c r="G103">
+        <v>0.01222216375235681</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9741018041413348</v>
+        <v>-0.02241187761585406</v>
       </c>
       <c r="C104">
-        <v>-0.1804759744218067</v>
+        <v>0.03262271927772867</v>
       </c>
       <c r="D104">
-        <v>0.01488412197102513</v>
+        <v>0.9872496077865076</v>
       </c>
       <c r="E104">
-        <v>0.04170627693259508</v>
+        <v>-0.05207033865137593</v>
+      </c>
+      <c r="F104">
+        <v>-0.03846671520496673</v>
+      </c>
+      <c r="G104">
+        <v>-0.02271723413473445</v>
       </c>
     </row>
   </sheetData>
